--- a/StarFall/warm.xlsx
+++ b/StarFall/warm.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\数模相关\HuaShui\StarFall\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WINTER\Project\HuaShui\StarFall\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5697769F-89B9-4938-9651-5DB79C7721AA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91261A26-BDB6-441E-A578-B498CEE09445}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2820" yWindow="1365" windowWidth="29505" windowHeight="19110" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="6450" yWindow="4215" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -450,8 +450,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AS931"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="B66" sqref="B66"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="X926" sqref="X926"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
